--- a/SuppXLS/Scen_RES_SHARE_50%_24_7.xlsx
+++ b/SuppXLS/Scen_RES_SHARE_50%_24_7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT_FULL\SuppXLS\Policy_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxco\Desktop\Masters\UPC\SEM 2\Energy Policy\GAMS\VEDA model\TIMES-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2FAE5B-B617-4B04-848A-288BA6E5BD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA93E867-EDD3-49AA-A075-23D0C502D6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS_1" sheetId="11" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Year</t>
   </si>
@@ -94,7 +94,7 @@
     <t>FLO_SHAR</t>
   </si>
   <si>
-    <t>ANNUAL</t>
+    <t>DAYNITE</t>
   </si>
 </sst>
 </file>
@@ -4441,21 +4441,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:I6"/>
+  <dimension ref="B1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1328125" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" customWidth="1"/>
     <col min="5" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
@@ -4467,7 +4467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1">
+    <row r="5" spans="2:9" ht="14.65" thickBot="1">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4490,8 +4490,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:9" ht="14.65" thickBot="1">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -4513,6 +4513,106 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="7" spans="2:9" ht="14.65" thickBot="1">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2035</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="14.65" thickBot="1">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2040</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="14.65" thickBot="1">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2045</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="14.65" thickBot="1">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2050</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="106" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SuppXLS/Scen_RES_SHARE_50%_24_7.xlsx
+++ b/SuppXLS/Scen_RES_SHARE_50%_24_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxco\Desktop\Masters\UPC\SEM 2\Energy Policy\GAMS\VEDA model\TIMES-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA93E867-EDD3-49AA-A075-23D0C502D6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D95F09-3160-4264-95A5-08C59E04CA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS_1" sheetId="11" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <t>FLO_SHAR</t>
   </si>
   <si>
-    <t>DAYNITE</t>
+    <t>ANNUAL</t>
   </si>
 </sst>
 </file>
@@ -4444,7 +4444,7 @@
   <dimension ref="B1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
